--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -1,42 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aux.ventas\Documents\ARCHIVOS PABLO\AAHM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{201E934A-75BF-3548-8034-6BE907D34F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B6BE4A-AE9E-4558-B49B-9B03CB15A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{313D1AB6-E148-42D3-A137-ABE6CAE72516}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="HOJA1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>SUCURSAL:</t>
+  </si>
+  <si>
+    <t>AGENTE:</t>
+  </si>
+  <si>
+    <t>CLIENTE:</t>
+  </si>
+  <si>
+    <t>NO.CLIENTE</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
   <si>
     <t>CODIGO</t>
   </si>
@@ -50,22 +49,16 @@
     <t>SURTIDO</t>
   </si>
   <si>
-    <t>SUCURSAL:</t>
-  </si>
-  <si>
-    <t>NO.CLIENTE</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>AGENTE:</t>
-  </si>
-  <si>
-    <t>CLIENTE:</t>
-  </si>
-  <si>
     <t>O.C.</t>
+  </si>
+  <si>
+    <t>V01009</t>
+  </si>
+  <si>
+    <t>CILONAXOL 5/30 MG CAJA C/10 TABS</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -286,12 +279,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,13 +294,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF3B3B"/>
-      <color rgb="FFFF7979"/>
-      <color rgb="FFFF9B9B"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,55 +303,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>366</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>181112</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F1B01D-8D03-678F-7E7E-7CB27A6747DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286250" y="0"/>
-          <a:ext cx="2619741" cy="981212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,36 +621,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191B7C1C-D0E3-4DA7-B516-CB17446BBD6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.52734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.31640625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="17"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
@@ -719,322 +658,332 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1045,13 +994,7 @@
   <mergeCells count="1">
     <mergeCell ref="D1:F4"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{8BE83687-CDC9-44E9-9D49-E1771EFD4CE2}">
-      <formula1>"SUC.TIJ, SUC.HMO, SUC.MTY, SUC.GDL, SUC. CDMX, SUC.PUE, SUC.MID"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
+  <pageSetup scale="87" orientation="portrait"/>
 </worksheet>
 </file>
--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B6BE4A-AE9E-4558-B49B-9B03CB15A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E3DDB7-968A-48AE-B710-86275AB003A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SUCURSAL:</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>CLIENTE:</t>
-  </si>
-  <si>
-    <t>NO.CLIENTE</t>
   </si>
   <si>
     <t>FECHA</t>
@@ -52,13 +49,7 @@
     <t>O.C.</t>
   </si>
   <si>
-    <t>V01009</t>
-  </si>
-  <si>
-    <t>CILONAXOL 5/30 MG CAJA C/10 TABS</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>NO.CLIENTE:</t>
   </si>
 </sst>
 </file>
@@ -282,11 +273,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,108 +617,98 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
